--- a/biology/Biologie cellulaire et moléculaire/Lame_basale/Lame_basale.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Lame_basale/Lame_basale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La lame basale est un assemblage de protéines et glycoprotéines extracellulaires sur lequel reposent les cellules épithéliales et aussi les cellules musculaires[1]. Elle permet l'adhérence de la cellule épithéliale au tissu conjonctif sous-jacent et constitue une interface majeure entre les cellules du tissu épithélial et l'intérieur de l'organisme, pour la régulation et la diffusion des nutriments. Elle a aussi un rôle dans la survie, la prolifération et la différenciation des cellules des différents tissus épithéliaux. Les molécules constitutives de la lame basale sont sécrétées par les cellules épithéliales. L'épaisseur de ce réseau extracellulaire est typiquement de l'ordre de 50 nanomètres, avec certaines pouvant atteindre 200 nm. Il n'est visible qu'en microscopie électronique. Elle constitue, avec la lame réticulaire, la membrane basale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lame basale est un assemblage de protéines et glycoprotéines extracellulaires sur lequel reposent les cellules épithéliales et aussi les cellules musculaires. Elle permet l'adhérence de la cellule épithéliale au tissu conjonctif sous-jacent et constitue une interface majeure entre les cellules du tissu épithélial et l'intérieur de l'organisme, pour la régulation et la diffusion des nutriments. Elle a aussi un rôle dans la survie, la prolifération et la différenciation des cellules des différents tissus épithéliaux. Les molécules constitutives de la lame basale sont sécrétées par les cellules épithéliales. L'épaisseur de ce réseau extracellulaire est typiquement de l'ordre de 50 nanomètres, avec certaines pouvant atteindre 200 nm. Il n'est visible qu'en microscopie électronique. Elle constitue, avec la lame réticulaire, la membrane basale.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Ultrastructure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La visualisation de la lame basale en microscopie électronique permet de visualiser sa structure, qui se décompose en trois feuillets de compositions différentes :
 la lamina lucida ou rara (10  à   50 nm), constituée de glycosaminoglycanes (anciennement mucopolysaccharides), et qui est en contact avec les cellules épithéliales ;
@@ -544,7 +558,9 @@
           <t>Composants majeurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Intégrines (transmembranaires)
 Laminines (réseau dans la lamina lucida)
@@ -580,7 +596,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cours d'histologie de l'université de médecine Paris Diderot (Dr Catherine Prost)
 Cours d'histologie de l'université de médecine Rennes 1 (Dr Marc-Antoine Belaud-Rotureau)
